--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_263.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_263.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3580562659846547</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.953139', '0:00:28.356495')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min'], ['D:min', 'D:min/b7', 'Bb'], ['C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min'], ['C#:min', 'C#:min/b7', 'A'], ['B', 'E', 'E/7']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755), (42.351519, 44.232335), (55.935192, 62.15814)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562), (13.148866, 18.419795), (9.201473, 13.148866)]</t>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.675</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -753,178 +752,190 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0573386224305806</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['D', 'E', 'A']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(38.435396, 43.311587), (17.014988, 20.892721)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.526825, 61.516031), (52.750498, 59.809365)]</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:01:33.300000', '0:01:43.060000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_197</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:00:09.600000', '0:00:25.040000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -933,272 +944,228 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(53.46, 61.8)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
